--- a/HISTORIAL_PROCESOS.xlsx
+++ b/HISTORIAL_PROCESOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E951"/>
+  <dimension ref="A1:E1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18962,6 +18962,8380 @@
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr"/>
     </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>4004721</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr"/>
+      <c r="E952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>5514124</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>ANKLE SUPPORT 120 - 3</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>692071</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>NOM-141-SSA1/SCFI-2012</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>ANTI FRICTION CREAM - NO SIZE</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>5174732</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>IN &amp; OUT MAT QR - No Size</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>4271138</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>BOTTLE JUNIOR ECOZEN 0,5L TURQUOISE - No Size</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>2611238</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>BOTTLE ALLROAD LIGHT 100 600ML CN WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>5057059</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>BG 100 JR RED MARBLE - 6 oz</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>865081</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>SILICONE EARPLUG RED BLEU* - ONE SIZE FITS ALL</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>2582130</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>ESSENTIAL 6 CONES 15CM ORANGE - No Size</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>2835156</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>TRIBAN PROTECT 700X32 - 700</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>176510</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>NOM121</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>TUBE 700X35/45 PRESTA - VELO VALVE</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>2531588</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>TRAINING BAND 45 KG COLO 1 - No Size</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>IMPORTADOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>2387252</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>BBT 500 POLY HO BLK - CS</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>2189141</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>DUFFEL BAG 500 EXTEND 40/60L BLUE - 40L</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>2189142</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>TRANSPORT BAG EXTEND 80/120 GR - 80L</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>2189143</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>TRANSPORT BAG EXTEND 80/120 YE - 80L</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>4977160</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>BACKPACK MH500 LIGHT 22L KAKI - UNIQUE</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>5094984</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>POCKET SWIM 3L PANTAI WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>5094986</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>SWIM POCKET 7L SUNSET MINT - No Size</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>2225716</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>BACKPACK WATERPROOF20L   BLACK -  .</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>2884127</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>SHOE BAG TEAM SPORT ACADEMIC BLACK - 10L</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>4011244</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>COVER FOR PLANE TRAVEL FORCLAZ - No Size</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>4231305</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>TRAVEL 900 W 50L BACKPACK LIGHT BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>5367299</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>COOLER 100 COMPACT 10L GREEN - No Size</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>1347579</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>Twine, cordage, ropes and cables, whether or not plaited or braided and whether or not impregnated, coated, covered or sheathed with rubber or plastics ; Of other synthetic fibres - 3mm</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>ISUMOS IMPORTADOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>2525747</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>SPOOL REEL SCD ** - No Size</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>4012160</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>SH100 ULTRA-WARM W FLEECE WHITE - XS</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>5002133</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>FLEECE WARM SH500 MTN W - UK 12-14 / EU L</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>2696866</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>SKIRT ESSENTIAL 100 W BLACK - UK 4 / EU 2XS</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>2696874</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>SK DRY 100 W SKIRT WHITE - 2XS</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>2696880</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>SK DRY 100 W SKIRT WHITE - XS</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>2696891</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>SK DRY 500 W SKIRT BLACK - UK 12-14 / EU L</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>5513399</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>SKIRT 500 LOLA BLACK REC OS*** - UK 10 / FR 40</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>5513400</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>SKIRT 500 LOLA BLACK REC OS*** - UK 12 / FR 42</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>2604688</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>LEGGING CHAUD 100 TG G LEGGINGS CBG - 131-140CM 8-9Y</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>2604692</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>LEGGING CHAUD 100 TG G LEGGINGS CBG - 160-166CM14-15Y</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>2610989</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>GCA 500 CONF REG W W LEGGINGS BLK - 2XL / W38 L31</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>2610995</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>GCA 500 CONF REG W W LEGGINGS BLK - L / W33 L31</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>2610997</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>GCA 500 CONF REG W W LEGGINGS BLK - M / W30 L31</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>2617515</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>TROUSERS 510 SLIM GYM BLACK - XS / W26 L30</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>2900266</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>PANT 510 SLIM GYM W MARINEBLUE - S / W28 L31</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>2707972</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>CYCL. SHORTS ESSENTIAL NB - 2XL</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>2707975</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>CYCL. SHORTS ESSENTIAL NB - L</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>2731162</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>LONG TIGHT RUN DRY W BLACK - S / W28 L31</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>4361219</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>LUGE PA DVR BB SMPLE WRM GREY - 12-18months/2'3"-2'7"</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>4367774</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>PANTS FLEECE MH100 KID NAVY - 3-4 Years</t>
+        </is>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>4436782</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>LEGGINGS WARM SH100 TW G BLACK - 7-8years/4'-4'2"</t>
+        </is>
+      </c>
+      <c r="E998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>4436783</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>LEGGINGS WARM SH100 TW G BLACK - 8-9years/4'3"-4'6</t>
+        </is>
+      </c>
+      <c r="E999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>4436784</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>LEGGINGS WARM SH100 TW G BLACK - 12-13years/4'9"-5'</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>4436785</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>LEGGINGS WARM SH100 TW G BLACK - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>4436787</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>LEGGINGS WARM SH100 TW G BLACK - 14-15years/5'2"-5'4"</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>4894513</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>BL BOT SKI 500 JR BLACK - 6 Years</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>4894514</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>BL BOT SKI 500 JR BLACK - 8 Years</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>4598660</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>NS UV TOP SS B PINK - 12 months / 2'3"-2'4"</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>5134386</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>MH 550 LS - M</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>5134387</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>MH 550 LS - L</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>5134388</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>MH 550 LS - XL</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>4379005</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>T-SHIRT REGULAR 100 WHITE M - L</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>4527348</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>T-SHIRT 500 V NECK BLACK - UK12 - 14 / EU L</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>5436359</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>T-SHIRT NH100 M ABYSS GREEN - XL</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>2764317</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>AT TS 100 CHILD WHITE - 131-140cm 8-9Y</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>4814033</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>WT-SHIRT UV SS PRINT GREY SS23 - XL</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>4878854</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>SSLTS FTS 120 ESS W PINK - UK 10 / EU M</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>4898419</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>T-SHIRT NH500 FRESH REC KHAKI MEN - M</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>4898421</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>T-SHIRT NH500 FRESH REC KHAKI MEN - XL</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>5225395</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>PTS LIGHT GREY - M</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>4439295</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>MTB LS JERSEY FEEL 700 FOREST GREEN -       2XL   .</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>4545499</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>FLEECE WARM SH900 MOUNTAIN W BLACK - S</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>4591887</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>SHERPA MH500 KID BOY LIGHT BEIGE - 2-3years/2'9"-3'1"</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>2647006</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>SH100 ULTRA-WARM FLEECE M BLACK - 2XL</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>2647009</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>SH100 ULTRA-WARM FLEECE M BLACK - M</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>2647010</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>SH100 ULTRA-WARM FLEECE M BLACK - S</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>2647011</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>SH100 ULTRA-WARM FLEECE M BLACK - XL</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>2746024</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>MT 500 WIND M SLEEVLESS JACKET BLACK M - 2XL</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>no cumple</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>4278920</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>FLEECE MH150 KID BOY BEIGE - 3-4years/3'2"-3'3"</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>4433707</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>SWEATSHIRT NH500 HYBRID BLACK W - L</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>4560151</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>BL SKI 500 TIMELESS TOP W WHITE - L</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>4630475</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>FLEECE JACKET MH120 GREEN M - M</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>4894439</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>BL TOP SKI 500 JR BLACK - 4 Years</t>
+        </is>
+      </c>
+      <c r="E1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>4894440</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>BL TOP SKI 500 JR BLACK - 6 Years</t>
+        </is>
+      </c>
+      <c r="E1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>5158226</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>BL TOP SKI 500 LOOSE M CAMO BICO -         S .</t>
+        </is>
+      </c>
+      <c r="E1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>5164728</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>SOFT YOGA PANT 500 - UK 10 / EU M (L31)</t>
+        </is>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>5404857</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>RAIN PONCHO 900 - S/M</t>
+        </is>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>5057507</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>UV TOP LS B VAN LIGHT KHAKI - 24 months / 2'6"-2'9"</t>
+        </is>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>5057508</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>UV TOP LS B VAN LIGHT KHAKI - 2-3years/2'9"-3'1"</t>
+        </is>
+      </c>
+      <c r="E1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>5057509</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>UV TOP LS B VAN LIGHT KHAKI - 3-4years/3'2"-3'3"</t>
+        </is>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>4112800</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>BOXER 500 FITIB ALL SHARK BLUE - 7-8years/4'-4'2"</t>
+        </is>
+      </c>
+      <c r="E1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>4228805</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>JAMMER 500 FITI BLACK MESH BLACK - UK 39" / FR 48</t>
+        </is>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>4545899</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>JAMMER 100 BASIC INDIGO - UK 32" / FR 42</t>
+        </is>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>4545900</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>JAMMER 100 BASIC INDIGO - UK 34" / FR 44</t>
+        </is>
+      </c>
+      <c r="E1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>5057379</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>JAMMER 500 FITI BLUE MESH RED - UK 29" / FR 38</t>
+        </is>
+      </c>
+      <c r="E1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>5416930</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>BOXER 100 PLUS NAVY LIME - 8-9years/4'3"-4'6</t>
+        </is>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>5416943</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>SWIMSHORT 100  YELLOW - 14-15years/5'2"-5'7"</t>
+        </is>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>5510457</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>BOXER 500 FITIB BLUE LINE BEIGE R - 10-11years/4'7"-4'9"</t>
+        </is>
+      </c>
+      <c r="E1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>5512552</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>JAMMER 500 FITIB BLACK MESH WHITE R - 7-8years/4'-4'2"</t>
+        </is>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>5512555</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>JAMMER 500 FITIB BLACK MESH WHITE R - 10-11years/4'7"-4'9"</t>
+        </is>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>5512556</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>JAMMER 500 FITIB BLACK MESH WHITE R - 12-13years/4'9"-5'2"</t>
+        </is>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>5512557</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>JAMMER 500 FITIB BLACK MESH WHITE R - 14-15years/5'2"-5'7"</t>
+        </is>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>5551858</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>BOXER 500 FITI GREEN LINI GREEN R - UK 32" / FR 42</t>
+        </is>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>2916390</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>1PBG JULIA SIMPLY TURQUOISE* - 61-69cm 6M</t>
+        </is>
+      </c>
+      <c r="E1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>2916392</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>1PBG JULIA SIMPLY TURQUOISE* - 76-81cm 18M</t>
+        </is>
+      </c>
+      <c r="E1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>4773286</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>CALY 1P GIRL 500 URBAN GEO - 8-9years/4'3"-4'6</t>
+        </is>
+      </c>
+      <c r="E1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>4791234</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>1P 500 KAMIYE+ PETROL SPE - UK 12 / FR 42</t>
+        </is>
+      </c>
+      <c r="E1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>4791236</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>1P 500 KAMIYE+ PETROL SPE - UK 16 / FR 46</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>4794790</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>SHORTY SWIM 100 PINK - 14-15years/5'2"-5'7"</t>
+        </is>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>4844364</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>ELISE 1_PIECE BLACK - UK 10 / FR 40</t>
+        </is>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>4847338</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>MARY 1_PIECE BELLY - UK 14 / FR 44</t>
+        </is>
+      </c>
+      <c r="E1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>4887215</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>SHORTY KAMYLEON 500 BLACK PINK - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>4887216</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>SHORTY KAMYLEON 500 BLACK PINK - 12-13years/4'9"-5'</t>
+        </is>
+      </c>
+      <c r="E1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>4954492</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>1P WB NORA BLACK*** - UK 8 / FR 38</t>
+        </is>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>4997379</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>1P WM LILA UP ARA BLACK** - UK 16 / FR 46</t>
+        </is>
+      </c>
+      <c r="E1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>5056935</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>1P 500 KAMYLA BLACK YELLOW** - UK 10 / FR 40</t>
+        </is>
+      </c>
+      <c r="E1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>5057031</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>SHORTY 500 KAMYLEON GEOL BLACK*** - UK 12 / FR 42</t>
+        </is>
+      </c>
+      <c r="E1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>5057032</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>SHORTY 500 KAMYLEON GEOL BLACK*** - UK 14 / FR 44</t>
+        </is>
+      </c>
+      <c r="E1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>5398182</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>TOP GIRL500 NORA HAO LILAS TURQ H17A - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>5415808</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>1P 500 KAMYLA RED SPE - UK 10 - FR 40</t>
+        </is>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>5415809</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>1P 500 KAMYLA RED SPE - UK 12 - FR 42</t>
+        </is>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>5417460</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>1P WM VIRGINIA RED OS*** - UK 8 / FR 38</t>
+        </is>
+      </c>
+      <c r="E1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>2543577</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Garments, knitted or crocheted, rubberised or impregnated, coated or covered with plastics or other materials (excl. babies' garments and clothing accessories) - M</t>
+        </is>
+      </c>
+      <c r="E1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>2543578</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Garments, knitted or crocheted, rubberised or impregnated, coated or covered with plastics or other materials (excl. babies' garments and clothing accessories) - L</t>
+        </is>
+      </c>
+      <c r="E1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>2603981</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>BRASSIERE S900 TG G SPORTS BRA BLK - 131-140CM 8-9Y</t>
+        </is>
+      </c>
+      <c r="E1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>2603983</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>BRASSIERE S900 TG G SPORTS BRA BLK - 149-159CM12-13Y</t>
+        </is>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>5057453</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>UV SHORTY LS B SUN CORAIL - 12 months / 2'3"-2'4"</t>
+        </is>
+      </c>
+      <c r="E1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>5057454</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>UV SHORTY LS B SUN CORAIL - 18 months / 2'5"-2'6"</t>
+        </is>
+      </c>
+      <c r="E1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>5057455</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>UV SHORTY LS B SUN CORAIL - 24 months / 2'6"-2'9"</t>
+        </is>
+      </c>
+      <c r="E1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>5417368</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>TOP 500 LILA SYMI SIENNA RED** - UK 10 / FR 40</t>
+        </is>
+      </c>
+      <c r="E1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>5450798</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>SKORT MH100 K PINK - 3-4years/3'2"-3'3"</t>
+        </is>
+      </c>
+      <c r="E1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1779332</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>SOCKS EKIDEN WHITE - UK 5.5-8 - EU 39-42</t>
+        </is>
+      </c>
+      <c r="E1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1862902</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>HIGH SOCKS 100  WHITE 16 - UK 8-9.5 - EU 42-44</t>
+        </is>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>2943426</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>SH520 X-WARM MID SOCKS BLACK - UK 8.5-11 EU43-46</t>
+        </is>
+      </c>
+      <c r="E1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>4486492</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>SOCKS SH100 X-WARM MID LIGHT GREY - 5.5-8 - 39/42</t>
+        </is>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>4565003</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>SKI SOCKS 50 ROBUST - 5.5-8 - 39/42</t>
+        </is>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>4898480</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>RUN500 THICK MID X2 BLUE - 5.5-8 - 39/42</t>
+        </is>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>4899393</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>RUN500 THIN INV X2 BLACK - 8.5-11 - 43/46</t>
+        </is>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>4899399</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>RUN500 THIN INV X2 WHITE - 8.5-11 - 43/46</t>
+        </is>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>4997644</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>COMPR SOCKS 500 BLACK GREY - 39/42L-5.5/8 L</t>
+        </is>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>4531547</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>CONVERTIBLE MITTEN MT500 WINDPROOF BLACK - S</t>
+        </is>
+      </c>
+      <c r="E1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>4531551</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>CONVERTIBLE MITTEN MT500 WINDPROOF BLACK - XL</t>
+        </is>
+      </c>
+      <c r="E1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>5415229</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>1 PBG JULIA PLOUF MINT - 24 months / 2'6"-2'9"</t>
+        </is>
+      </c>
+      <c r="E1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>2665773</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>ROADR 900 PREFORMD ARM COVER BLCK - M/L</t>
+        </is>
+      </c>
+      <c r="E1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>2669359</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>HEADBAND TH 100  NAVY - UNIQUE</t>
+        </is>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>2352511</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>JKRAINWARM 500 3X1 L   PNK - S</t>
+        </is>
+      </c>
+      <c r="E1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>2352513</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>JKRAINWARM 500 3X1 L   PNK - L</t>
+        </is>
+      </c>
+      <c r="E1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1539894</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>WARM JACKET 100 CAMO GREEN - XL</t>
+        </is>
+      </c>
+      <c r="E1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>4246823</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>BOMBER JACKET WARM SH500 TW NAVY - 14-15years/5'2"-5'7"</t>
+        </is>
+      </c>
+      <c r="E1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>4002452</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>TREK 500 WINDWARM DD W WINDBREAKER BLK - L</t>
+        </is>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>4002453</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>TREK 500 WINDWARM DD W WINDBREAKER BLK - M</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>4002454</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>TREK 500 WINDWARM DD W WINDBREAKER BLK - S</t>
+        </is>
+      </c>
+      <c r="E1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>4002455</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>TREK 500 WINDWARM DD W WINDBREAKER BLK - XL</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>4016140</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>JACKET SH500 X-WARM 3*1 GIRL 7-15 D BLUE - 8-9years/4'3"-4'6</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>4016141</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>JACKET SH500 X-WARM 3*1 GIRL 7-15 D BLUE - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>2121847</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>PADDED JACKET ARPENAZ 20 BLACK - 2XL</t>
+        </is>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>4264175</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>WARM JACKET NH500 W BLUE - UK20-22 / EU 2XL</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>4595531</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>G PADDED HYBRID MH500 TW GIRL NAVY - 7-8years/4'-4'2"</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>4595533</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>G PADDED HYBRID MH500 TW GIRL NAVY - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>4596311</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>PADDED JACKET HYBRID TW BOY BLACK - 8-9years/4'3"-4'6</t>
+        </is>
+      </c>
+      <c r="E1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>4596313</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>PADDED JACKET HYBRID TW BOY BLACK - 12-13years/4'9"-5'2"</t>
+        </is>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>2029637</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>PADDED JACKET NH100 W DARK NAVY - XS</t>
+        </is>
+      </c>
+      <c r="E1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>2029642</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>PADDED JACKET NH100 W DARK NAVY - 2XL</t>
+        </is>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>2354660</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>VEST FULLDOWN L NOIR - L</t>
+        </is>
+      </c>
+      <c r="E1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>2715239</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>SH100 WARM W JACKET PURPLE - L</t>
+        </is>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>2715241</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>SH100 WARM W JACKET PURPLE - S</t>
+        </is>
+      </c>
+      <c r="E1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>4032210</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>TREK100 HOODY PADDED JKT W TURQUOISE NEW - S</t>
+        </is>
+      </c>
+      <c r="E1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>4032212</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>TREK100 HOODY PADDED JKT W TURQUOISE NEW - XS</t>
+        </is>
+      </c>
+      <c r="E1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>4447272</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>SYNTHPADDED HOODY JKT MT100 W PINK - L</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>5185120</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>WARM JACKET NH100 M KHAKI - M</t>
+        </is>
+      </c>
+      <c r="E1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>5185123</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>JACKET WARM SH100 M KHAKI - 2XL</t>
+        </is>
+      </c>
+      <c r="E1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>2920341</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>SYNTHPADDED VEST MT100 M BLACK - 2XL</t>
+        </is>
+      </c>
+      <c r="E1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>2920345</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>SYNTHPADDED VEST MT100 M BLACK - M</t>
+        </is>
+      </c>
+      <c r="E1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>2920347</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>SYNTHPADDED VEST MT100 M BLACK - XL</t>
+        </is>
+      </c>
+      <c r="E1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>4050384</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>JACKET LONG NH100 W HURRICANE BLUE - M</t>
+        </is>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>2959082</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 BU M TROUSERS CBG GREY - UK 30 - EU 38</t>
+        </is>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>2959084</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 BU M TROUSERS CBG GREY - UK 34 - EU 42</t>
+        </is>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>2959085</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 BU M TROUSERS CBG GREY - UK 36 - EU 44</t>
+        </is>
+      </c>
+      <c r="E1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>4083852</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>TROUSERS NH500 REGULAR BEIGE M - UK36" FR46 (L34)</t>
+        </is>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>4083854</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>TROUSERS NH500 REGULAR BEIGE M - UK39" FR48 (L34)</t>
+        </is>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>4469345</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>PANTS REGULAR NH500 M NAVY - UK34" / FR 44 (L34)</t>
+        </is>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>4469348</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>PANTS REGULAR NH500 M NAVY - UK36" / FR 46 (L34)</t>
+        </is>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>2419672</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>TROUSERS SH500 X-WARM M DARK GREY - UK38 EU46 (L34)</t>
+        </is>
+      </c>
+      <c r="E1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>2468334</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>TROUSERS SH500 X-WARM M DARK GREY - UK32 EU40 (L33)</t>
+        </is>
+      </c>
+      <c r="E1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>2956258</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>MODULPANT MH550 KID BOY JR TROUSERS NAV - 3-4 years / 3'2"-3'3"</t>
+        </is>
+      </c>
+      <c r="E1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>4565780</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>BOARDSHORT 500L ALEX KAKI - UK 29" / FR 38</t>
+        </is>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>4565781</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>BOARDSHORT 500L ALEX KAKI - UK 31" / FR 40</t>
+        </is>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>4565782</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>BOARDSHORT 500L ALEX KAKI - UK 32" / FR 42</t>
+        </is>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>4565783</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>BOARDSHORT 500L ALEX KAKI - UK 34" / FR 44</t>
+        </is>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>4565785</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>BOARDSHORT 500L ALEX KAKI - UK 39" / FR 48</t>
+        </is>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>5086572</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>ZIP OFF TROUSERS MT500 DARK GREY M - UK29" / FR 38 (L33)</t>
+        </is>
+      </c>
+      <c r="E1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>5086574</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>ZIP OFF TROUSERS MT500 DARK GREY M - UK31" / FR 40 (L33)</t>
+        </is>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>5086578</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>ZIP OFF TROUSERS MT500 DARK GREY M - UK34" / FR 44 (L34)</t>
+        </is>
+      </c>
+      <c r="E1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>5086594</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>ZIP OFF TROUSERS MT500 KHAKI M - UK29" / FR 38 (L33)</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>5189944</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>TROUSERS WARM SH500 MOUNTAIN M BLACK - UK34" / FR 44 (L34)</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>5189946</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>TROUSERS WARM SH500 MOUNTAIN M BLACK - UK36" / FR 46 (L34)</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>5405200</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 BROWN M - UK 33" - FR 40 (L33)</t>
+        </is>
+      </c>
+      <c r="E1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>5449695</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>MDL PTS MH500 M BLACK - UK39" / FR 48 (L34)</t>
+        </is>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>5450072</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>PANTS MH500 M BLUE - UK32" / FR 42 (L33)</t>
+        </is>
+      </c>
+      <c r="E1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>5450098</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>PANTS MH500 M GREEN - UK34" / FR 44 (L34)</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>5532239</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>JACKET MH900 M SLATE GREY - L.</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>5055195</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>SHORT 100 GIRL KATY SHISO - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>5055196</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>SHORT 100 GIRL KATY SHISO - 12-13years/4'9"-5'</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>2141853</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>SHORT DRY 500 M BLACK - 2XL</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>2141855</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>SHORT DRY 500 M BLACK - L</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>4776560</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 KHAKI W - UK 8 / FR 38 (L31)</t>
+        </is>
+      </c>
+      <c r="E1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>4776564</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 KHAKI W - UK 12 / FR 42 (L31)</t>
+        </is>
+      </c>
+      <c r="E1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>4776566</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 KHAKI W - UK 14 / FR 44 (L31)</t>
+        </is>
+      </c>
+      <c r="E1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>4776654</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 MODULAR BLUE W - UK6 / FR36 (L30)</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>4776660</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 MODULAR BLUE W - UK12 / FR42 (L31)</t>
+        </is>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>4776664</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>TROUSERS MT500 MODULAR BLUE W - UK16 / FR46 (L31)</t>
+        </is>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>5086256</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>TROUSER WARM SH500 W - UK 14 / FR 44 (L31)</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>5099781</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>TROUSERS MT900 BLACK W - UK 12 / FR 42 (L31)</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>5450405</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>PANTS MH500 W BLACK - UK 10 / FR 40 (L31)</t>
+        </is>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>5450425</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>PANTS MH500 W GREEN - UK 10 / FR 40 (L31)</t>
+        </is>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>2775156</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 WARM M LS SHIRT ASP KAKHI - 2XL</t>
+        </is>
+      </c>
+      <c r="E1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>4481277</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr"/>
+      <c r="E1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>2126329</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>BATHROBE COTTON MAN 2 DARK BLUE** - M</t>
+        </is>
+      </c>
+      <c r="E1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>5274721</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>BATHROBE 500 JR FARO MAT PINK - 7-8years/4'-4'2"</t>
+        </is>
+      </c>
+      <c r="E1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>4001657</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 3IN1 JACKET M GREY - L</t>
+        </is>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>4001659</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 3IN1 JACKET M GREY - S</t>
+        </is>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>4448192</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>JACKET MH150 MEN BEIGE - S</t>
+        </is>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>4448193</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>JACKET MH150 MEN BEIGE - M</t>
+        </is>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>4448196</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>JACKET MH150 MEN BEIGE - 2XL</t>
+        </is>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>2694279</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>JACKET INSHORE 100 W GREY WHITE - 2XL</t>
+        </is>
+      </c>
+      <c r="E1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>4300027</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 3IN1 JACKET W BURGUNDY - L</t>
+        </is>
+      </c>
+      <c r="E1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>4300031</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>TRAVEL 100 3IN1 JACKET W BURGUNDY - XS</t>
+        </is>
+      </c>
+      <c r="E1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>4744606</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>JACKET MH 500 TW GIRL PURPLE - 10-11years/4'7"-4'8"</t>
+        </is>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>4744607</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>JACKET MH 500 TW GIRL PURPLE - 12-13years/4'9"-5'</t>
+        </is>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>5154696</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>JACKET NH500 W BLACK - UK20-22 / EU 2XL</t>
+        </is>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>5154700</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>JACKET NH500 W HURRICANE BLUE - UK10 / EU M</t>
+        </is>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>5392919</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>JACKET NH500 W CHERRY PURPLE - UK12 - 14 / EU L</t>
+        </is>
+      </c>
+      <c r="E1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>5392921</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>JACKET NH500 W CHERRY PURPLE - UK20-22 / EU 2XL</t>
+        </is>
+      </c>
+      <c r="E1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>2341936</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>JACKET RUN RAIN  BLACK - L</t>
+        </is>
+      </c>
+      <c r="E1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>2715579</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>OVERPANTS MH550 W OVERTROUSERS BLK - UK12 EU42 (L31)</t>
+        </is>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>4451183</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>OVERPANTS SAILING 100 M BLUE DOPED DYE - UK 30" / EU S</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>4807075</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>JACKET NH100 1/2 ZIP TW - 7-9years/4'-4'6"</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>no cumple</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>5234098</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>JACKET LONG NH500 M BLUE - M</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>5234100</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>JACKET LONG NH500 M BLUE - XL</t>
+        </is>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>5355118</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>JACKET SAILING 100 M NAVY WHITE - L</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>5391575</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>JKT MH100 ZIP K BLUE - 2-3years/2'9"-3'1"</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>4478932</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>BA 50N CLUB GREY BLACK - 40-60 kg</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>FBRA500 PRINT BLACK GREY - UK8 / EU S</t>
+        </is>
+      </c>
+      <c r="E1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>5000002</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>FBRA500 PRINT BLACK GREY - UK12 - 14 / EU L</t>
+        </is>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>5000003</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>FBRA500 PRINT BLACK GREY - UK16-18 / EU XL</t>
+        </is>
+      </c>
+      <c r="E1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>4537589</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>ANDREA BRA BLACK - UK:34C EU:75C</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>2908940</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>SKI-P MI 100 BLACK - L</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>2908941</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>SKI-P MI 100 BLACK - M</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>2908942</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>SKI-P MI 100 BLACK - S</t>
+        </is>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>no cumple</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>2908943</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>SKI-P MI 100 BLACK - XL</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>5204891</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>SKI-P GL 100 JR BLUE24 - 12 Years</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>2016115</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>BASIC L DARK BLUE 16** -  .</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>TALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>2016118</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>BASIC L MARTINICA BLUE* -  .</t>
+        </is>
+      </c>
+      <c r="E1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>4844731</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MATTRESS MT500 AIR XL NV - XL</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1327175</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>BUNGEE 10MMX100X 2 COLO BLACK - .</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>2180978</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>SADDLE COVER ERGO 500 L BLACK - No Size</t>
+        </is>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>4825470</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>KNEE PREVENT 100 - 1</t>
+        </is>
+      </c>
+      <c r="E1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>4825472</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>KNEE PREVENT 100 - 3</t>
+        </is>
+      </c>
+      <c r="E1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>4825601</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>Wrist R500 - No Size</t>
+        </is>
+      </c>
+      <c r="E1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>5534726</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr"/>
+      <c r="E1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>5534727</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr"/>
+      <c r="E1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>5534731</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr"/>
+      <c r="E1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>375674</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>JACKET FULL DOWN XWARM BLACK - M</t>
+        </is>
+      </c>
+      <c r="E1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>375675</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>JACKET FULL DOWN XWARM BLACK - L</t>
+        </is>
+      </c>
+      <c r="E1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>375678</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>JACKET FULL DOWN XWARM BLACK - XL</t>
+        </is>
+      </c>
+      <c r="E1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>375680</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>JACKET FULL DOWN XWARM BLACK - 2XL</t>
+        </is>
+      </c>
+      <c r="E1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>5418865</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>TO 500 W METAL PINK - UK5.5-6.5 EU39-40</t>
+        </is>
+      </c>
+      <c r="E1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>4781408</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>TO 190 M DUCK GREEN - UK 8.5-9.5 EU43-44</t>
+        </is>
+      </c>
+      <c r="E1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>4781409</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>TO 190 M DUCK GREEN - UK 10.5-11 EU45-46</t>
+        </is>
+      </c>
+      <c r="E1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>5418654</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>TO 500 M BLUE GREY - UK 7-8 EU41-42</t>
+        </is>
+      </c>
+      <c r="E1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>5114633</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SHOES SH100 MID SCRATCH JR - UK 11.5C  EU30</t>
+        </is>
+      </c>
+      <c r="E1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>5114634</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SHOES SH100 MID SCRATCH JR - UK 12C  EU31</t>
+        </is>
+      </c>
+      <c r="E1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>5114636</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SHOES SH100 MID SCRATCH JR - UK 1 EU33</t>
+        </is>
+      </c>
+      <c r="E1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>5114637</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SHOES SH100 MID SCRATCH JR - UK 1.5  EU34</t>
+        </is>
+      </c>
+      <c r="E1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>2686730</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SHOES MH120 MID WTP KID TURQUOISE - UK 1 EU33</t>
+        </is>
+      </c>
+      <c r="E1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>5155482</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SHOE NH100 MID WP W DARK GREY - UK 3  EU36</t>
+        </is>
+      </c>
+      <c r="E1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>5155483</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SHOE NH100 MID WP W DARK GREY - UK 4  EU37</t>
+        </is>
+      </c>
+      <c r="E1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>5155485</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SHOE NH100 MID WP W DARK GREY - UK 5.5  EU39</t>
+        </is>
+      </c>
+      <c r="E1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>2717393</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SHOES WARM SH500 MID LACE LEATHER JR BRO - UK 2.5  EU35</t>
+        </is>
+      </c>
+      <c r="E1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>4966056</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SHOES MT100 W GREEN GREY - UK 3  EU36</t>
+        </is>
+      </c>
+      <c r="E1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>4423290</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SHOE NH500 MID LEATHER WP M BEIGE - UK 9.5 - EU 44</t>
+        </is>
+      </c>
+      <c r="E1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>5419848</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BACKPACK MH500 38L COPPER BROWN - No Size</t>
+        </is>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>4236901</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SHOES MH500 MID WP M BICOLO GREY - UK 11 - EU 46</t>
+        </is>
+      </c>
+      <c r="E1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>4894883</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SHOES MH500 MID WTP W - UK 5  EU38</t>
+        </is>
+      </c>
+      <c r="E1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>4894884</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SHOES MH500 MID WTP W - UK 5.5  EU39</t>
+        </is>
+      </c>
+      <c r="E1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>4894885</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SHOES MH500 MID WTP W - UK 6.5  EU40</t>
+        </is>
+      </c>
+      <c r="E1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>5054322</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SHOES MH100 MID WP W - UK 3  EU36</t>
+        </is>
+      </c>
+      <c r="E1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>5054324</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SHOES MH100 MID WP W - UK 5  EU38</t>
+        </is>
+      </c>
+      <c r="E1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>5054325</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SHOES MH100 MID WP W - UK 5.5  EU39</t>
+        </is>
+      </c>
+      <c r="E1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>5054326</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SHOES MH100 MID WP W - UK 6.5  EU40</t>
+        </is>
+      </c>
+      <c r="E1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>5054327</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SHOES MH100 MID WP W - UK 7  EU41</t>
+        </is>
+      </c>
+      <c r="E1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>4229515</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SH ON-TRAIL MT100 W GREY BLACK - UK 3 EU36</t>
+        </is>
+      </c>
+      <c r="E1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>4229516</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SH ON-TRAIL MT100 W GREY BLACK - UK 4 EU37</t>
+        </is>
+      </c>
+      <c r="E1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>4864679</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr"/>
+      <c r="E1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>5462883</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr"/>
+      <c r="E1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>5462884</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr"/>
+      <c r="E1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>4236784</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>NOM-020-SCFI-1997</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>SHOES MH500 WP M BLUE - UK 8.5 - EU 43</t>
+        </is>
+      </c>
+      <c r="E1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>5281036</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>COMPR LEGSLEEVE 900 BLUE H17B - S</t>
+        </is>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>NO CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>2421904</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>CAP TC 500 WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>2512790</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>TREK 100 A CAP PINK - 56-60cm</t>
+        </is>
+      </c>
+      <c r="E1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>2685585</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>CAP DARK BLUE WW - UNIQUE</t>
+        </is>
+      </c>
+      <c r="E1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>4687183</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>HAT TIMELESS JR PINK - UNIQUE</t>
+        </is>
+      </c>
+      <c r="E1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>5094818</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>MESH CAP S PANTAI WHITE - S 20.7'-21.8'</t>
+        </is>
+      </c>
+      <c r="E1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>5104602</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>MESH CAP 100 S BLUE PATCH - S 20.7'-21.8'</t>
+        </is>
+      </c>
+      <c r="E1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>5224481</v>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>RUNNING CAP  V2 BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>2648190</v>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>DESERT 500 CAP BROWN - No Size</t>
+        </is>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>no cumple</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>2356818</v>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>HOOD YARN JR RED BLUE - UNIQUE</t>
+        </is>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>5406884</v>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>MT 500 WOOL NECK GAITER BLACK NEW - No Size</t>
+        </is>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>2234740</v>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>ROCK HELMET  GREY - 50-57cm</t>
+        </is>
+      </c>
+      <c r="E1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>2386116</v>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>MTB HELMET ST 50 BLACK - L</t>
+        </is>
+      </c>
+      <c r="E1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>2392715</v>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>Helmet - Safety headgear, whether or not lined or trimmed - M</t>
+        </is>
+      </c>
+      <c r="E1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>2669228</v>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>MTB HELMET ST 50 EVO BLACK - M</t>
+        </is>
+      </c>
+      <c r="E1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>2769275</v>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>BABY BIKE HELMET 500 FLUO - 2XS/44-49cm</t>
+        </is>
+      </c>
+      <c r="E1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>4149344</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>BABY BIKE HELMET 500 PINK - 2XS/44-49cm</t>
+        </is>
+      </c>
+      <c r="E1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>4484336</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>HELMET ROAD 500 MIPS KAKI - M</t>
+        </is>
+      </c>
+      <c r="E1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>4484337</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>HELMET ROAD 500 MIPS KAKI - L</t>
+        </is>
+      </c>
+      <c r="E1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>4517771</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>KH 500 YELLOW - S/53-56cm</t>
+        </is>
+      </c>
+      <c r="E1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>4518104</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>EXPL 500 KHAKI - S/52-55cm</t>
+        </is>
+      </c>
+      <c r="E1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>5448301</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>SILICONE CAP PLAIN BLACK - No Size</t>
+        </is>
+      </c>
+      <c r="E1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>2557561</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>1 POLE HIKE 500 GREEN - No Size</t>
+        </is>
+      </c>
+      <c r="E1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>4577834</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>BARBECUE COMPACT 4P STAINLESS STEEL - No Size</t>
+        </is>
+      </c>
+      <c r="E1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>2558433</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>COOKSET MH100 STAIN. STEEL 1P - No Size</t>
+        </is>
+      </c>
+      <c r="E1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>2558434</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>COOKSET MH100 STAIN. STEEL 2P - No Size</t>
+        </is>
+      </c>
+      <c r="E1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>5294200</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>COOKING SET 500 2P GREEN - No Size</t>
+        </is>
+      </c>
+      <c r="E1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>699597</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>PIQUET ACIER (X10) 18 CM - .</t>
+        </is>
+      </c>
+      <c r="E1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>4196799</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>BOTTLE MH500 ALU. 1,5L BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>2178164</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>TOOLS BOX BIKE 900 - No Size</t>
+        </is>
+      </c>
+      <c r="E1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>2226200</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>HAND PUMP 2 X 1,4L ORANGE - No Size.</t>
+        </is>
+      </c>
+      <c r="E1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>2692370</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>HYBRID CYCLING HAND PUMP - No Size</t>
+        </is>
+      </c>
+      <c r="E1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>2722589</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>ELECTRIC PUMP ITIWIT - No Size</t>
+        </is>
+      </c>
+      <c r="E1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>5206681</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>RECHARGEABLE PUMP 2024 - No Size</t>
+        </is>
+      </c>
+      <c r="E1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>2902569</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>CLIP LIGHT 100 RR RED. - No Size</t>
+        </is>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>2197072</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>HEADLAMP ONNIGHT 100 - 80LM BLACK - .</t>
+        </is>
+      </c>
+      <c r="E1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>4434858</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>TORCH DYNAMO 500 USB V2 - 150LM PETROL - No Size</t>
+        </is>
+      </c>
+      <c r="E1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>4645933</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>HEADLAMP HL900 HYBRID V3  600LM WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>2439682</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>NOM015</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr"/>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>ST 520 RR CN FR  GREY - XL - 185-195cm</t>
+        </is>
+      </c>
+      <c r="E1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>4096122</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr"/>
+      <c r="E1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>4309964</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>14" BIKE 500 RED - 14"</t>
+        </is>
+      </c>
+      <c r="E1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>2175555</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>MTB PEDALS RESIN 100 - .</t>
+        </is>
+      </c>
+      <c r="E1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>2538453</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>SIN NORMA</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>MTB AUTO 520 PEDALS -  .</t>
+        </is>
+      </c>
+      <c r="E1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>4263683</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>NOM050</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr"/>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>BOTTLE CAGE SIDE ENTRY - No Size</t>
+        </is>
+      </c>
+      <c r="E1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>4528456</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>W200 S 2024 - MINT - No Size</t>
+        </is>
+      </c>
+      <c r="E1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>2835332</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>ATW100 BLACK - No Size</t>
+        </is>
+      </c>
+      <c r="E1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>4019111</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>MULTIFUNCTION WHISTLE 50 COMPASS BLO - No Size</t>
+        </is>
+      </c>
+      <c r="E1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>4844272</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>MT500 10°C SLEEPING BAG_NEW - S</t>
+        </is>
+      </c>
+      <c r="E1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>2556842</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>BL100 BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>4559671</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>NOM-024-SCFI-2013</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>BL 60 DYNAMO RECHARGEABLE USB C GREY - No Size</t>
+        </is>
+      </c>
+      <c r="E1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>1689055</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>BALLES SCRATCH GEOLOGIC - .</t>
+        </is>
+      </c>
+      <c r="E1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>4004301</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>SCRATCH TARGET TRADITIONAL - No Size</t>
+        </is>
+      </c>
+      <c r="E1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>4768245</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>AQUAGYM GLOVES BLACK BLUE - 2XS/XS</t>
+        </is>
+      </c>
+      <c r="E1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>4768246</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>AQUAGYM GLOVES BLACK BLUE - S/M</t>
+        </is>
+      </c>
+      <c r="E1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>4768247</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>AQUAGYM GLOVES BLACK BLUE - L/XL</t>
+        </is>
+      </c>
+      <c r="E1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>2686141</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>HEAVY RINGS PACK 4 MULTICO 4* - No Size</t>
+        </is>
+      </c>
+      <c r="E1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>4391768</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>PULL BUOY 500 L BLACK BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>5095017</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>MASK EASYBREATH 500 GREY NO BAG - S/M</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>5214305</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>FIN FF 100 SOFT JR PURPLE GREEN - UK C9.5-10.5 EU28-29</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>5214306</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>FIN FF 100 SOFT JR PURPLE GREEN - UK C13-1 EU32-33</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>83848</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>SWIMVEST DANOBLUE** - 15-18 KG</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>83850</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>COSTURA</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>NOM-004-SE-2021</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>SWIMVEST DANOBLUE** - 18-30 KG</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>2509643</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>SOFT 500 GOLF BALL X12 WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>2517465</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>FOAM BALL X6 - No Size</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>674032</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>BALL 100 WHITE - .</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>CUMPLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>2354022</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>ARTENGO FB 830* 40+ X 72 WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>2698844</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>SET ROLLNET 2020 - No Size</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>2393813</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>FSC 560 78 X12 - No Size</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>4075184</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>RACKET FTR 500S - Grip 1</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>4189361</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>PR HYBRID METAL WHITE - No Size</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>2657295</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>PILATES WEIGHTED BALL 900G - No Size</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>2923687</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>GRIP 100 MINI GREEN - No Size</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>5447105</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>NOM-015-SCFI-2007</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>BALL EASY WP DOT YELLOW - UNIQUE</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>4334101</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>SB 560 RED DOT X2 2021 - No Size</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>2574040</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>RS QUAD 100 WHITE - UK 3  EU36</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>2574041</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>RS QUAD 100 WHITE - UK 4  EU37</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>2923491</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>NEW SSD - No Size</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>5304647</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>4056625</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>PSC100 MEDIUM X3 CH WH GR OR - No Size</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>2544784</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>DISQUE DSOFT BLUE SURPRISE - .</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>2988124</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>FIRSTSHOOT GREEN - No Size</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>4047194</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>SOFT FLASK 250ML NEWFILM2020 - 250ml</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>4271142</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>BOTTLE JUNIOR STAIN. STEEL 0,6L BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>4489966</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>INSULATED BOTTLE 0,4L BLUE - 400ml</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>4489984</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>ADHERIBLE</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>NOM-050-SCFI-2004</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>INSULATED BOTTLE 1L BLUE - No Size</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
